--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByOldBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByOldBankCardSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10140" windowHeight="4440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10065" windowHeight="2445"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>${DebtBatchUtils.getDebtId()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -533,7 +537,7 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByOldBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByOldBankCardSuccessful.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,15 +65,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>payPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smsCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,15 +466,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -505,15 +496,12 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -522,29 +510,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E2">
         <v>50000</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" t="s">
-        <v>14</v>
+      <c r="H2" s="2"/>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByOldBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByOldBankCardSuccessful.xlsx
@@ -69,7 +69,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已有银行卡购买贴心计划成功</t>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it789123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getBankCardByMobile(${mobile})}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DebtBatchUtils.getDebtId()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it7891234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有银行卡购买债转产品成功</t>
     <rPh sb="0" eb="1">
       <t>yi you</t>
     </rPh>
@@ -88,26 +108,6 @@
     <rPh sb="11" eb="12">
       <t>cheng g</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getBankCardByMobile(${mobile})}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${DebtBatchUtils.getDebtId()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -510,26 +510,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>50000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByOldBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByOldBankCardSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10065" windowHeight="2445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11055" windowHeight="1800"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,14 @@
     <rPh sb="11" eb="12">
       <t>cheng g</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,19 +472,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,25 +495,28 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -516,19 +527,22 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>50000</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByOldBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByOldBankCardSuccessful.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11055" windowHeight="1800"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17940" windowHeight="10860"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -78,10 +82,6 @@
   </si>
   <si>
     <t>${BankCardUtils.getBankCardByMobile(${mobile})}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${DebtBatchUtils.getDebtId()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -118,12 +118,16 @@
     <t>${ConstantUtils.getCorrectCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>${DebtBatchUtils.getFinancePlan()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,19 +476,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="7" max="7" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -516,7 +521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -527,10 +532,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F2">
         <v>50000</v>
@@ -539,11 +544,11 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -561,9 +566,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
